--- a/data/data_selection/data_selection.xlsx
+++ b/data/data_selection/data_selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/data_selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB5BA0C-860F-7549-9F72-726073F3ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87143900-10CA-2348-AEA3-A114F2F4FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1800" windowWidth="27240" windowHeight="16440" xr2:uid="{9985A75E-EB26-5749-BA8E-B1A91FE63120}"/>
+    <workbookView xWindow="2880" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{9985A75E-EB26-5749-BA8E-B1A91FE63120}"/>
   </bookViews>
   <sheets>
     <sheet name="CGO" sheetId="1" r:id="rId1"/>
@@ -35,18 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E2A43AB0-C9B5-4349-922D-876081C672EC}</author>
+  </authors>
+  <commentList>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{E2A43AB0-C9B5-4349-922D-876081C672EC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I just made these CH4 dates up for testing</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t># File specifying when to use the various ALE/GAGE/AGAGE instruments</t>
   </si>
   <si>
-    <t># Instrument can be one of ALE/GAGE/GCMD/GCMS-ADS/GCMS-Medusa</t>
-  </si>
-  <si>
-    <t># A blank entry means that the time is unbounded at that end</t>
-  </si>
-  <si>
     <t># If there is no entry for a species it is assumed that it is only measured on the GCMS-Medusa</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
     <t># Date format should be YYYY-MM-DD HH:MM</t>
   </si>
   <si>
-    <t># NOTE: IF WORKING IN EXCEL CONVERT DATE COLUMNS TO TEXT OTHERWISE EXCEL WILL APPLY ITS OWN CONVERSION</t>
-  </si>
-  <si>
     <t>Species</t>
   </si>
   <si>
@@ -99,19 +108,69 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>1984-01-01 00:00</t>
+  </si>
+  <si>
+    <t>1994-03-15 00:00</t>
+  </si>
+  <si>
+    <t>2010-06-01 00:00</t>
+  </si>
+  <si>
+    <t># NOTE: ENSURE CELLS ARE FORMATTED AS TEXT, NOT DATES. IF PASTING VALUES ENSURE YOU "MATCH DESTINATION FORMATTING" TO PREVENT EXCEL FROM CONVERTING TO DATE AND TIME</t>
+  </si>
+  <si>
+    <t>1978-01-01 00:00</t>
+  </si>
+  <si>
+    <t>Picarro start</t>
+  </si>
+  <si>
+    <t>Picarro end</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>1994-01-01 00:00</t>
+  </si>
+  <si>
+    <t>2013-01-01 00:00</t>
+  </si>
+  <si>
+    <t># A blank entry in either the start or end date means that the time is unbounded at that side</t>
+  </si>
+  <si>
+    <t># An "x" indicates that this instrument should not be included in timeseries for this species</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,10 +193,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,6 +214,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Matthew Rigby" id="{34B736E8-4CAD-3843-A1A8-25F59C5B220F}" userId="S::chxmr@bristol.ac.uk::ca6cd915-32ac-44b1-8565-a73cfd7038de" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,160 +517,224 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E9" dT="2023-07-22T05:26:38.42" personId="{34B736E8-4CAD-3843-A1A8-25F59C5B220F}" id="{E2A43AB0-C9B5-4349-922D-876081C672EC}">
+    <text>I just made these CH4 dates up for testing</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D736054-8742-4344-BD3B-1940B38914AC}">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D736054-8742-4344-BD3B-1940B38914AC}">
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>30682</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30682</v>
-      </c>
-      <c r="E9" s="2">
-        <v>34408</v>
-      </c>
-      <c r="F9" s="2">
-        <v>34408</v>
-      </c>
-      <c r="G9" s="2">
-        <v>40330</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="2">
-        <v>40330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>28491</v>
-      </c>
-      <c r="D10" s="2">
-        <v>28491</v>
-      </c>
-      <c r="E10" s="2">
-        <v>34408</v>
-      </c>
-      <c r="F10" s="2">
-        <v>34408</v>
-      </c>
-      <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15"/>
+      <c r="L10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data_selection/data_selection.xlsx
+++ b/data/data_selection/data_selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/data_selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87143900-10CA-2348-AEA3-A114F2F4FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B31A25-C29F-CF4C-AA27-A3D535FD6B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{9985A75E-EB26-5749-BA8E-B1A91FE63120}"/>
+    <workbookView xWindow="23000" yWindow="3940" windowWidth="27240" windowHeight="16440" xr2:uid="{9985A75E-EB26-5749-BA8E-B1A91FE63120}"/>
   </bookViews>
   <sheets>
     <sheet name="CGO" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Species</t>
   </si>
   <si>
-    <t>CH3CCl3</t>
-  </si>
-  <si>
     <t>ALE start</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>GCMS-ADS end</t>
   </si>
   <si>
-    <t>CFC-11</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>Picarro end</t>
   </si>
   <si>
-    <t>CH4</t>
-  </si>
-  <si>
     <t>1994-01-01 00:00</t>
   </si>
   <si>
@@ -144,13 +135,22 @@
   </si>
   <si>
     <t># An "x" indicates that this instrument should not be included in timeseries for this species</t>
+  </si>
+  <si>
+    <t>ch4</t>
+  </si>
+  <si>
+    <t>ch3ccl3</t>
+  </si>
+  <si>
+    <t>cfc-11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,12 +165,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,12 +187,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +522,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,191 +538,185 @@
     <col min="13" max="17" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_selection/data_selection.xlsx
+++ b/data/data_selection/data_selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/data_selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B31A25-C29F-CF4C-AA27-A3D535FD6B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7564175-ECE2-3446-AB2E-CD06F3645D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23000" yWindow="3940" windowWidth="27240" windowHeight="16440" xr2:uid="{9985A75E-EB26-5749-BA8E-B1A91FE63120}"/>
+    <workbookView xWindow="2880" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{9985A75E-EB26-5749-BA8E-B1A91FE63120}"/>
   </bookViews>
   <sheets>
     <sheet name="CGO" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E2A43AB0-C9B5-4349-922D-876081C672EC}</author>
+    <author>tc={E74B7E44-2395-6C42-B73D-2EC1F22A60C7}</author>
   </authors>
   <commentList>
     <comment ref="E9" authorId="0" shapeId="0" xr:uid="{E2A43AB0-C9B5-4349-922D-876081C672EC}">
@@ -49,12 +50,20 @@
     I just made these CH4 dates up for testing</t>
       </text>
     </comment>
+    <comment ref="C11" authorId="1" shapeId="0" xr:uid="{E74B7E44-2395-6C42-B73D-2EC1F22A60C7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Check these</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t># File specifying when to use the various ALE/GAGE/AGAGE instruments</t>
   </si>
@@ -114,9 +123,6 @@
   </si>
   <si>
     <t># NOTE: ENSURE CELLS ARE FORMATTED AS TEXT, NOT DATES. IF PASTING VALUES ENSURE YOU "MATCH DESTINATION FORMATTING" TO PREVENT EXCEL FROM CONVERTING TO DATE AND TIME</t>
-  </si>
-  <si>
-    <t>1978-01-01 00:00</t>
   </si>
   <si>
     <t>Picarro start</t>
@@ -150,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +171,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -514,6 +526,9 @@
   <threadedComment ref="E9" dT="2023-07-22T05:26:38.42" personId="{34B736E8-4CAD-3843-A1A8-25F59C5B220F}" id="{E2A43AB0-C9B5-4349-922D-876081C672EC}">
     <text>I just made these CH4 dates up for testing</text>
   </threadedComment>
+  <threadedComment ref="C11" dT="2023-07-26T20:04:11.42" personId="{34B736E8-4CAD-3843-A1A8-25F59C5B220F}" id="{E74B7E44-2395-6C42-B73D-2EC1F22A60C7}">
+    <text>Check these</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -522,7 +537,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +560,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -560,7 +575,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -608,15 +623,15 @@
         <v>13</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -625,33 +640,33 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -686,13 +701,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>17</v>
